--- a/inputs/TransitRouteKey.xlsx
+++ b/inputs/TransitRouteKey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="5235" yWindow="75" windowWidth="18195" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="459">
   <si>
     <t>Emme_Rt_ID</t>
   </si>
@@ -1122,12 +1122,6 @@
     <t>RLCRL</t>
   </si>
   <si>
-    <t>RLLRd</t>
-  </si>
-  <si>
-    <t>RLLRC</t>
-  </si>
-  <si>
     <t>RLLRL</t>
   </si>
   <si>
@@ -1360,6 +1354,45 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>WF001</t>
+  </si>
+  <si>
+    <t>WF002</t>
+  </si>
+  <si>
+    <t>WF003</t>
+  </si>
+  <si>
+    <t>WF004</t>
+  </si>
+  <si>
+    <t>WF005</t>
+  </si>
+  <si>
+    <t>WF006</t>
+  </si>
+  <si>
+    <t>WF007</t>
+  </si>
+  <si>
+    <t>WF008</t>
+  </si>
+  <si>
+    <t>WF975</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>KT501</t>
+  </si>
+  <si>
+    <t>KT502</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1428,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D999"/>
+  <dimension ref="A1:D1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A846" workbookViewId="0">
-      <selection activeCell="H867" sqref="H867"/>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="H1007" sqref="H1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14649,9 +14683,8 @@
       <c r="C863" t="s">
         <v>367</v>
       </c>
-      <c r="D863" t="str">
-        <f t="shared" si="13"/>
-        <v>RL</v>
+      <c r="D863" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
@@ -14664,9 +14697,8 @@
       <c r="C864" t="s">
         <v>367</v>
       </c>
-      <c r="D864" t="str">
-        <f t="shared" si="13"/>
-        <v>RL</v>
+      <c r="D864" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
@@ -14680,7 +14712,7 @@
         <v>368</v>
       </c>
       <c r="D865" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
@@ -14691,10 +14723,10 @@
         <v>6011</v>
       </c>
       <c r="C866" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D866" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
@@ -14707,9 +14739,8 @@
       <c r="C867" t="s">
         <v>367</v>
       </c>
-      <c r="D867" t="str">
-        <f t="shared" si="13"/>
-        <v>RL</v>
+      <c r="D867" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
@@ -14720,10 +14751,10 @@
         <v>6010</v>
       </c>
       <c r="C868" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D868" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
@@ -14734,10 +14765,10 @@
         <v>6010</v>
       </c>
       <c r="C869" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D869" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
@@ -14748,10 +14779,10 @@
         <v>8001</v>
       </c>
       <c r="C870" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D870" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
@@ -14762,10 +14793,10 @@
         <v>8001</v>
       </c>
       <c r="C871" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D871" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
@@ -14778,9 +14809,8 @@
       <c r="C872" t="s">
         <v>367</v>
       </c>
-      <c r="D872" t="str">
-        <f t="shared" si="13"/>
-        <v>RL</v>
+      <c r="D872" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
@@ -14791,7 +14821,7 @@
         <v>2603</v>
       </c>
       <c r="C873" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D873" t="str">
         <f t="shared" si="13"/>
@@ -14806,7 +14836,7 @@
         <v>2603</v>
       </c>
       <c r="C874" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D874" t="str">
         <f t="shared" si="13"/>
@@ -14821,7 +14851,7 @@
         <v>7012</v>
       </c>
       <c r="C875" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D875" t="str">
         <f t="shared" si="13"/>
@@ -14836,7 +14866,7 @@
         <v>7017</v>
       </c>
       <c r="C876" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D876" t="str">
         <f t="shared" si="13"/>
@@ -14851,7 +14881,7 @@
         <v>7017</v>
       </c>
       <c r="C877" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D877" t="str">
         <f t="shared" si="13"/>
@@ -14866,7 +14896,7 @@
         <v>7018</v>
       </c>
       <c r="C878" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D878" t="str">
         <f t="shared" si="13"/>
@@ -14881,7 +14911,7 @@
         <v>7018</v>
       </c>
       <c r="C879" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D879" t="str">
         <f t="shared" si="13"/>
@@ -14896,7 +14926,7 @@
         <v>7002</v>
       </c>
       <c r="C880" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D880" t="str">
         <f t="shared" si="13"/>
@@ -14911,7 +14941,7 @@
         <v>7027</v>
       </c>
       <c r="C881" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D881" t="str">
         <f t="shared" si="13"/>
@@ -14926,7 +14956,7 @@
         <v>7027</v>
       </c>
       <c r="C882" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D882" t="str">
         <f t="shared" si="13"/>
@@ -14941,7 +14971,7 @@
         <v>7029</v>
       </c>
       <c r="C883" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D883" t="str">
         <f t="shared" si="13"/>
@@ -14956,7 +14986,7 @@
         <v>7029</v>
       </c>
       <c r="C884" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D884" t="str">
         <f t="shared" si="13"/>
@@ -14971,7 +15001,7 @@
         <v>7003</v>
       </c>
       <c r="C885" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D885" t="str">
         <f t="shared" si="13"/>
@@ -14986,7 +15016,7 @@
         <v>7003</v>
       </c>
       <c r="C886" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D886" t="str">
         <f t="shared" si="13"/>
@@ -15001,7 +15031,7 @@
         <v>7004</v>
       </c>
       <c r="C887" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D887" t="str">
         <f t="shared" si="13"/>
@@ -15016,7 +15046,7 @@
         <v>7005</v>
       </c>
       <c r="C888" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D888" t="str">
         <f t="shared" si="13"/>
@@ -15031,7 +15061,7 @@
         <v>7005</v>
       </c>
       <c r="C889" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D889" t="str">
         <f t="shared" si="13"/>
@@ -15046,7 +15076,7 @@
         <v>7007</v>
       </c>
       <c r="C890" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D890" t="str">
         <f t="shared" si="13"/>
@@ -15061,7 +15091,7 @@
         <v>7007</v>
       </c>
       <c r="C891" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D891" t="str">
         <f t="shared" si="13"/>
@@ -15076,7 +15106,7 @@
         <v>7070</v>
       </c>
       <c r="C892" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D892" t="str">
         <f t="shared" si="13"/>
@@ -15091,7 +15121,7 @@
         <v>7701</v>
       </c>
       <c r="C893" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D893" t="str">
         <f t="shared" si="13"/>
@@ -15106,7 +15136,7 @@
         <v>7701</v>
       </c>
       <c r="C894" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D894" t="str">
         <f t="shared" si="13"/>
@@ -15121,7 +15151,7 @@
         <v>7072</v>
       </c>
       <c r="C895" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D895" t="str">
         <f t="shared" si="13"/>
@@ -15136,7 +15166,7 @@
         <v>7008</v>
       </c>
       <c r="C896" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D896" t="str">
         <f t="shared" si="13"/>
@@ -15151,7 +15181,7 @@
         <v>7008</v>
       </c>
       <c r="C897" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D897" t="str">
         <f t="shared" si="13"/>
@@ -15166,7 +15196,7 @@
         <v>7009</v>
       </c>
       <c r="C898" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D898" t="str">
         <f t="shared" si="13"/>
@@ -15181,7 +15211,7 @@
         <v>7009</v>
       </c>
       <c r="C899" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D899" t="str">
         <f t="shared" ref="D899:D962" si="14">LEFT(C899, 2)</f>
@@ -15196,7 +15226,7 @@
         <v>7025</v>
       </c>
       <c r="C900" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D900" t="str">
         <f t="shared" si="14"/>
@@ -15211,7 +15241,7 @@
         <v>7014</v>
       </c>
       <c r="C901" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D901" t="str">
         <f t="shared" si="14"/>
@@ -15226,7 +15256,7 @@
         <v>4005</v>
       </c>
       <c r="C902" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D902" t="str">
         <f t="shared" si="14"/>
@@ -15241,7 +15271,7 @@
         <v>4005</v>
       </c>
       <c r="C903" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D903" t="str">
         <f t="shared" si="14"/>
@@ -15256,7 +15286,7 @@
         <v>4011</v>
       </c>
       <c r="C904" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D904" t="str">
         <f t="shared" si="14"/>
@@ -15271,7 +15301,7 @@
         <v>4011</v>
       </c>
       <c r="C905" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D905" t="str">
         <f t="shared" si="14"/>
@@ -15286,7 +15316,7 @@
         <v>4011</v>
       </c>
       <c r="C906" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D906" t="str">
         <f t="shared" si="14"/>
@@ -15301,7 +15331,7 @@
         <v>4013</v>
       </c>
       <c r="C907" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D907" t="str">
         <f t="shared" si="14"/>
@@ -15316,7 +15346,7 @@
         <v>4013</v>
       </c>
       <c r="C908" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D908" t="str">
         <f t="shared" si="14"/>
@@ -15331,7 +15361,7 @@
         <v>4015</v>
       </c>
       <c r="C909" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D909" t="str">
         <f t="shared" si="14"/>
@@ -15346,7 +15376,7 @@
         <v>4017</v>
       </c>
       <c r="C910" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D910" t="str">
         <f t="shared" si="14"/>
@@ -15361,7 +15391,7 @@
         <v>4017</v>
       </c>
       <c r="C911" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D911" t="str">
         <f t="shared" si="14"/>
@@ -15376,7 +15406,7 @@
         <v>4019</v>
       </c>
       <c r="C912" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D912" t="str">
         <f t="shared" si="14"/>
@@ -15391,7 +15421,7 @@
         <v>4020</v>
       </c>
       <c r="C913" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D913" t="str">
         <f t="shared" si="14"/>
@@ -15406,7 +15436,7 @@
         <v>4020</v>
       </c>
       <c r="C914" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D914" t="str">
         <f t="shared" si="14"/>
@@ -15421,7 +15451,7 @@
         <v>4021</v>
       </c>
       <c r="C915" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D915" t="str">
         <f t="shared" si="14"/>
@@ -15436,7 +15466,7 @@
         <v>4021</v>
       </c>
       <c r="C916" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D916" t="str">
         <f t="shared" si="14"/>
@@ -15451,7 +15481,7 @@
         <v>4022</v>
       </c>
       <c r="C917" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D917" t="str">
         <f t="shared" si="14"/>
@@ -15466,7 +15496,7 @@
         <v>4023</v>
       </c>
       <c r="C918" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D918" t="str">
         <f t="shared" si="14"/>
@@ -15481,7 +15511,7 @@
         <v>4025</v>
       </c>
       <c r="C919" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D919" t="str">
         <f t="shared" si="14"/>
@@ -15496,7 +15526,7 @@
         <v>4025</v>
       </c>
       <c r="C920" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D920" t="str">
         <f t="shared" si="14"/>
@@ -15511,7 +15541,7 @@
         <v>4026</v>
       </c>
       <c r="C921" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D921" t="str">
         <f t="shared" si="14"/>
@@ -15526,7 +15556,7 @@
         <v>4026</v>
       </c>
       <c r="C922" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D922" t="str">
         <f t="shared" si="14"/>
@@ -15541,7 +15571,7 @@
         <v>4029</v>
       </c>
       <c r="C923" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D923" t="str">
         <f t="shared" si="14"/>
@@ -15556,7 +15586,7 @@
         <v>4029</v>
       </c>
       <c r="C924" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D924" t="str">
         <f t="shared" si="14"/>
@@ -15571,7 +15601,7 @@
         <v>4034</v>
       </c>
       <c r="C925" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D925" t="str">
         <f t="shared" si="14"/>
@@ -15586,7 +15616,7 @@
         <v>4085</v>
       </c>
       <c r="C926" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D926" t="str">
         <f t="shared" si="14"/>
@@ -15601,7 +15631,7 @@
         <v>4091</v>
       </c>
       <c r="C927" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D927" t="str">
         <f t="shared" si="14"/>
@@ -15616,7 +15646,7 @@
         <v>4094</v>
       </c>
       <c r="C928" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D928" t="str">
         <f t="shared" si="14"/>
@@ -15631,7 +15661,7 @@
         <v>4095</v>
       </c>
       <c r="C929" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D929" t="str">
         <f t="shared" si="14"/>
@@ -15646,7 +15676,7 @@
         <v>4097</v>
       </c>
       <c r="C930" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D930" t="str">
         <f t="shared" si="14"/>
@@ -15661,7 +15691,7 @@
         <v>4098</v>
       </c>
       <c r="C931" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D931" t="str">
         <f t="shared" si="14"/>
@@ -15676,7 +15706,7 @@
         <v>4099</v>
       </c>
       <c r="C932" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D932" t="str">
         <f t="shared" si="14"/>
@@ -15691,7 +15721,7 @@
         <v>4501</v>
       </c>
       <c r="C933" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D933" t="str">
         <f t="shared" si="14"/>
@@ -15706,7 +15736,7 @@
         <v>4501</v>
       </c>
       <c r="C934" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D934" t="str">
         <f t="shared" si="14"/>
@@ -15721,7 +15751,7 @@
         <v>4301</v>
       </c>
       <c r="C935" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D935" t="str">
         <f t="shared" si="14"/>
@@ -15736,7 +15766,7 @@
         <v>4301</v>
       </c>
       <c r="C936" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D936" t="str">
         <f t="shared" si="14"/>
@@ -15751,7 +15781,7 @@
         <v>4011</v>
       </c>
       <c r="C937" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D937" t="str">
         <f t="shared" si="14"/>
@@ -15766,7 +15796,7 @@
         <v>4011</v>
       </c>
       <c r="C938" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D938" t="str">
         <f t="shared" si="14"/>
@@ -15781,7 +15811,7 @@
         <v>4023</v>
       </c>
       <c r="C939" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D939" t="str">
         <f t="shared" si="14"/>
@@ -15796,7 +15826,7 @@
         <v>4033</v>
       </c>
       <c r="C940" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D940" t="str">
         <f t="shared" si="14"/>
@@ -15811,7 +15841,7 @@
         <v>4034</v>
       </c>
       <c r="C941" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D941" t="str">
         <f t="shared" si="14"/>
@@ -15826,7 +15856,7 @@
         <v>4091</v>
       </c>
       <c r="C942" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D942" t="str">
         <f t="shared" si="14"/>
@@ -15841,7 +15871,7 @@
         <v>4091</v>
       </c>
       <c r="C943" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D943" t="str">
         <f t="shared" si="14"/>
@@ -15856,7 +15886,7 @@
         <v>4092</v>
       </c>
       <c r="C944" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D944" t="str">
         <f t="shared" si="14"/>
@@ -15871,7 +15901,7 @@
         <v>4086</v>
       </c>
       <c r="C945" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D945" t="str">
         <f t="shared" si="14"/>
@@ -15886,7 +15916,7 @@
         <v>4086</v>
       </c>
       <c r="C946" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D946" t="str">
         <f t="shared" si="14"/>
@@ -15901,7 +15931,7 @@
         <v>4502</v>
       </c>
       <c r="C947" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D947" t="str">
         <f t="shared" si="14"/>
@@ -15916,7 +15946,7 @@
         <v>4502</v>
       </c>
       <c r="C948" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D948" t="str">
         <f t="shared" si="14"/>
@@ -15931,7 +15961,7 @@
         <v>4093</v>
       </c>
       <c r="C949" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D949" t="str">
         <f t="shared" si="14"/>
@@ -15946,7 +15976,7 @@
         <v>4106</v>
       </c>
       <c r="C950" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D950" t="str">
         <f t="shared" si="14"/>
@@ -15961,7 +15991,7 @@
         <v>4096</v>
       </c>
       <c r="C951" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D951" t="str">
         <f t="shared" si="14"/>
@@ -15976,7 +16006,7 @@
         <v>4036</v>
       </c>
       <c r="C952" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D952" t="str">
         <f t="shared" si="14"/>
@@ -15991,7 +16021,7 @@
         <v>4024</v>
       </c>
       <c r="C953" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D953" t="str">
         <f t="shared" si="14"/>
@@ -16006,7 +16036,7 @@
         <v>4024</v>
       </c>
       <c r="C954" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D954" t="str">
         <f t="shared" si="14"/>
@@ -16021,7 +16051,7 @@
         <v>4012</v>
       </c>
       <c r="C955" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D955" t="str">
         <f t="shared" si="14"/>
@@ -16036,7 +16066,7 @@
         <v>4012</v>
       </c>
       <c r="C956" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D956" t="str">
         <f t="shared" si="14"/>
@@ -16051,7 +16081,7 @@
         <v>4012</v>
       </c>
       <c r="C957" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D957" t="str">
         <f t="shared" si="14"/>
@@ -16066,7 +16096,7 @@
         <v>4012</v>
       </c>
       <c r="C958" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D958" t="str">
         <f t="shared" si="14"/>
@@ -16081,7 +16111,7 @@
         <v>4009</v>
       </c>
       <c r="C959" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D959" t="str">
         <f t="shared" si="14"/>
@@ -16096,7 +16126,7 @@
         <v>4032</v>
       </c>
       <c r="C960" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D960" t="str">
         <f t="shared" si="14"/>
@@ -16111,7 +16141,7 @@
         <v>4032</v>
       </c>
       <c r="C961" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D961" t="str">
         <f t="shared" si="14"/>
@@ -16126,7 +16156,7 @@
         <v>4035</v>
       </c>
       <c r="C962" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D962" t="str">
         <f t="shared" si="14"/>
@@ -16141,7 +16171,7 @@
         <v>4037</v>
       </c>
       <c r="C963" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D963" t="str">
         <f t="shared" ref="D963:D999" si="15">LEFT(C963, 2)</f>
@@ -16156,7 +16186,7 @@
         <v>4041</v>
       </c>
       <c r="C964" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D964" t="str">
         <f t="shared" si="15"/>
@@ -16171,7 +16201,7 @@
         <v>4081</v>
       </c>
       <c r="C965" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D965" t="str">
         <f t="shared" si="15"/>
@@ -16186,7 +16216,7 @@
         <v>4091</v>
       </c>
       <c r="C966" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D966" t="str">
         <f t="shared" si="15"/>
@@ -16201,7 +16231,7 @@
         <v>4008</v>
       </c>
       <c r="C967" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D967" t="str">
         <f t="shared" si="15"/>
@@ -16216,7 +16246,7 @@
         <v>4008</v>
       </c>
       <c r="C968" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D968" t="str">
         <f t="shared" si="15"/>
@@ -16231,7 +16261,7 @@
         <v>4090</v>
       </c>
       <c r="C969" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D969" t="str">
         <f t="shared" si="15"/>
@@ -16246,7 +16276,7 @@
         <v>4090</v>
       </c>
       <c r="C970" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D970" t="str">
         <f t="shared" si="15"/>
@@ -16261,7 +16291,7 @@
         <v>4090</v>
       </c>
       <c r="C971" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D971" t="str">
         <f t="shared" si="15"/>
@@ -16276,7 +16306,7 @@
         <v>4202</v>
       </c>
       <c r="C972" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D972" t="str">
         <f t="shared" si="15"/>
@@ -16291,7 +16321,7 @@
         <v>4203</v>
       </c>
       <c r="C973" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D973" t="str">
         <f t="shared" si="15"/>
@@ -16306,7 +16336,7 @@
         <v>4204</v>
       </c>
       <c r="C974" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D974" t="str">
         <f t="shared" si="15"/>
@@ -16321,7 +16351,7 @@
         <v>4207</v>
       </c>
       <c r="C975" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D975" t="str">
         <f t="shared" si="15"/>
@@ -16336,7 +16366,7 @@
         <v>4209</v>
       </c>
       <c r="C976" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D976" t="str">
         <f t="shared" si="15"/>
@@ -16351,7 +16381,7 @@
         <v>4210</v>
       </c>
       <c r="C977" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D977" t="str">
         <f t="shared" si="15"/>
@@ -16366,7 +16396,7 @@
         <v>4212</v>
       </c>
       <c r="C978" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D978" t="str">
         <f t="shared" si="15"/>
@@ -16381,7 +16411,7 @@
         <v>4213</v>
       </c>
       <c r="C979" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D979" t="str">
         <f t="shared" si="15"/>
@@ -16396,7 +16426,7 @@
         <v>4214</v>
       </c>
       <c r="C980" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D980" t="str">
         <f t="shared" si="15"/>
@@ -16411,7 +16441,7 @@
         <v>4215</v>
       </c>
       <c r="C981" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D981" t="str">
         <f t="shared" si="15"/>
@@ -16426,7 +16456,7 @@
         <v>4216</v>
       </c>
       <c r="C982" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D982" t="str">
         <f t="shared" si="15"/>
@@ -16441,7 +16471,7 @@
         <v>4217</v>
       </c>
       <c r="C983" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D983" t="str">
         <f t="shared" si="15"/>
@@ -16456,7 +16486,7 @@
         <v>4218</v>
       </c>
       <c r="C984" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D984" t="str">
         <f t="shared" si="15"/>
@@ -16471,7 +16501,7 @@
         <v>4219</v>
       </c>
       <c r="C985" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D985" t="str">
         <f t="shared" si="15"/>
@@ -16486,7 +16516,7 @@
         <v>4220</v>
       </c>
       <c r="C986" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D986" t="str">
         <f t="shared" si="15"/>
@@ -16501,7 +16531,7 @@
         <v>4222</v>
       </c>
       <c r="C987" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D987" t="str">
         <f t="shared" si="15"/>
@@ -16516,7 +16546,7 @@
         <v>4226</v>
       </c>
       <c r="C988" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D988" t="str">
         <f t="shared" si="15"/>
@@ -16531,7 +16561,7 @@
         <v>4221</v>
       </c>
       <c r="C989" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D989" t="str">
         <f t="shared" si="15"/>
@@ -16546,7 +16576,7 @@
         <v>4223</v>
       </c>
       <c r="C990" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D990" t="str">
         <f t="shared" si="15"/>
@@ -16561,7 +16591,7 @@
         <v>4224</v>
       </c>
       <c r="C991" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D991" t="str">
         <f t="shared" si="15"/>
@@ -16576,7 +16606,7 @@
         <v>4225</v>
       </c>
       <c r="C992" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D992" t="str">
         <f t="shared" si="15"/>
@@ -16591,7 +16621,7 @@
         <v>4201</v>
       </c>
       <c r="C993" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D993" t="str">
         <f t="shared" si="15"/>
@@ -16606,7 +16636,7 @@
         <v>4205</v>
       </c>
       <c r="C994" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D994" t="str">
         <f t="shared" si="15"/>
@@ -16621,7 +16651,7 @@
         <v>4206</v>
       </c>
       <c r="C995" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D995" t="str">
         <f t="shared" si="15"/>
@@ -16636,7 +16666,7 @@
         <v>4211</v>
       </c>
       <c r="C996" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D996" t="str">
         <f t="shared" si="15"/>
@@ -16651,7 +16681,7 @@
         <v>4208</v>
       </c>
       <c r="C997" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D997" t="str">
         <f t="shared" si="15"/>
@@ -16666,7 +16696,7 @@
         <v>2051</v>
       </c>
       <c r="C998" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D998" t="str">
         <f t="shared" si="15"/>
@@ -16681,12 +16711,179 @@
         <v>2051</v>
       </c>
       <c r="C999" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D999" t="str">
         <f t="shared" si="15"/>
         <v>PT</v>
       </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>1050</v>
+      </c>
+      <c r="B1000">
+        <v>1975</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <f>A1000+1</f>
+        <v>1051</v>
+      </c>
+      <c r="B1001">
+        <v>4501</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <f t="shared" ref="A1002:A1010" si="16">A1001+1</f>
+        <v>1052</v>
+      </c>
+      <c r="B1002">
+        <v>4502</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <f t="shared" si="16"/>
+        <v>1053</v>
+      </c>
+      <c r="B1003">
+        <v>5001</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <f t="shared" si="16"/>
+        <v>1054</v>
+      </c>
+      <c r="B1004">
+        <v>5002</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <f t="shared" si="16"/>
+        <v>1055</v>
+      </c>
+      <c r="B1005">
+        <v>5003</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <f t="shared" si="16"/>
+        <v>1056</v>
+      </c>
+      <c r="B1006">
+        <v>5004</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <f t="shared" si="16"/>
+        <v>1057</v>
+      </c>
+      <c r="B1007">
+        <v>5005</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <f t="shared" si="16"/>
+        <v>1058</v>
+      </c>
+      <c r="B1008">
+        <v>5006</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <f t="shared" si="16"/>
+        <v>1059</v>
+      </c>
+      <c r="B1009">
+        <v>5007</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <f t="shared" si="16"/>
+        <v>1060</v>
+      </c>
+      <c r="B1010">
+        <v>5008</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1011" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16695,10 +16892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D745"/>
+  <dimension ref="A1:D756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="E662" sqref="E662"/>
+    <sheetView topLeftCell="A732" workbookViewId="0">
+      <selection activeCell="B746" sqref="B746:D756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16714,7 +16911,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -21060,7 +21257,7 @@
         <v>1213</v>
       </c>
       <c r="C291" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="4"/>
@@ -21075,7 +21272,7 @@
         <v>1213</v>
       </c>
       <c r="C292" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="4"/>
@@ -23190,7 +23387,7 @@
         <v>1912</v>
       </c>
       <c r="C433" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D433" t="str">
         <f t="shared" si="6"/>
@@ -23205,7 +23402,7 @@
         <v>1912</v>
       </c>
       <c r="C434" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D434" t="str">
         <f t="shared" si="6"/>
@@ -23250,7 +23447,7 @@
         <v>1914</v>
       </c>
       <c r="C437" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D437" t="str">
         <f t="shared" si="6"/>
@@ -23265,7 +23462,7 @@
         <v>1914</v>
       </c>
       <c r="C438" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D438" t="str">
         <f t="shared" si="6"/>
@@ -23310,7 +23507,7 @@
         <v>1916</v>
       </c>
       <c r="C441" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D441" t="str">
         <f t="shared" si="6"/>
@@ -23325,7 +23522,7 @@
         <v>1916</v>
       </c>
       <c r="C442" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="6"/>
@@ -23610,7 +23807,7 @@
         <v>1952</v>
       </c>
       <c r="C461" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D461" t="str">
         <f t="shared" si="7"/>
@@ -23970,7 +24167,7 @@
         <v>3227</v>
       </c>
       <c r="C485" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D485" t="str">
         <f t="shared" si="7"/>
@@ -24030,7 +24227,7 @@
         <v>3227</v>
       </c>
       <c r="C489" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D489" t="str">
         <f t="shared" si="7"/>
@@ -24045,7 +24242,7 @@
         <v>3227</v>
       </c>
       <c r="C490" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D490" t="str">
         <f t="shared" si="7"/>
@@ -24120,7 +24317,7 @@
         <v>3247</v>
       </c>
       <c r="C495" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D495" t="str">
         <f t="shared" si="7"/>
@@ -24135,7 +24332,7 @@
         <v>3247</v>
       </c>
       <c r="C496" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D496" t="str">
         <f t="shared" si="7"/>
@@ -24180,7 +24377,7 @@
         <v>3227</v>
       </c>
       <c r="C499" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D499" t="str">
         <f t="shared" si="7"/>
@@ -24255,7 +24452,7 @@
         <v>3227</v>
       </c>
       <c r="C504" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D504" t="str">
         <f t="shared" si="7"/>
@@ -24570,7 +24767,7 @@
         <v>3114</v>
       </c>
       <c r="C525" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D525" t="str">
         <f t="shared" si="8"/>
@@ -24600,7 +24797,7 @@
         <v>3114</v>
       </c>
       <c r="C527" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D527" t="str">
         <f t="shared" si="8"/>
@@ -26385,10 +26582,10 @@
         <v>6010</v>
       </c>
       <c r="C646" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D646" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -26399,10 +26596,10 @@
         <v>6010</v>
       </c>
       <c r="C647" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D647" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -26623,10 +26820,10 @@
         <v>8001</v>
       </c>
       <c r="C662" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D662" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -26637,10 +26834,10 @@
         <v>8001</v>
       </c>
       <c r="C663" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D663" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -26651,10 +26848,10 @@
         <v>6011</v>
       </c>
       <c r="C664" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D664" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -26665,10 +26862,10 @@
         <v>6011</v>
       </c>
       <c r="C665" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D665" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -26679,7 +26876,7 @@
         <v>2603</v>
       </c>
       <c r="C666" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D666" t="str">
         <f t="shared" si="10"/>
@@ -26694,7 +26891,7 @@
         <v>2603</v>
       </c>
       <c r="C667" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D667" t="str">
         <f t="shared" si="10"/>
@@ -26709,7 +26906,7 @@
         <v>7012</v>
       </c>
       <c r="C668" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D668" t="str">
         <f t="shared" si="10"/>
@@ -26724,7 +26921,7 @@
         <v>7017</v>
       </c>
       <c r="C669" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D669" t="str">
         <f t="shared" si="10"/>
@@ -26739,7 +26936,7 @@
         <v>7017</v>
       </c>
       <c r="C670" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D670" t="str">
         <f t="shared" si="10"/>
@@ -26754,7 +26951,7 @@
         <v>7018</v>
       </c>
       <c r="C671" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D671" t="str">
         <f t="shared" si="10"/>
@@ -26769,7 +26966,7 @@
         <v>7018</v>
       </c>
       <c r="C672" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D672" t="str">
         <f t="shared" si="10"/>
@@ -26784,7 +26981,7 @@
         <v>7002</v>
       </c>
       <c r="C673" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D673" t="str">
         <f t="shared" si="10"/>
@@ -26799,7 +26996,7 @@
         <v>7027</v>
       </c>
       <c r="C674" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D674" t="str">
         <f t="shared" si="10"/>
@@ -26814,7 +27011,7 @@
         <v>7027</v>
       </c>
       <c r="C675" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D675" t="str">
         <f t="shared" si="10"/>
@@ -26829,7 +27026,7 @@
         <v>7029</v>
       </c>
       <c r="C676" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D676" t="str">
         <f t="shared" si="10"/>
@@ -26844,7 +27041,7 @@
         <v>7029</v>
       </c>
       <c r="C677" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D677" t="str">
         <f t="shared" si="10"/>
@@ -26859,7 +27056,7 @@
         <v>7003</v>
       </c>
       <c r="C678" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D678" t="str">
         <f t="shared" si="10"/>
@@ -26874,7 +27071,7 @@
         <v>7003</v>
       </c>
       <c r="C679" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D679" t="str">
         <f t="shared" si="10"/>
@@ -26889,7 +27086,7 @@
         <v>7004</v>
       </c>
       <c r="C680" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D680" t="str">
         <f t="shared" si="10"/>
@@ -26904,7 +27101,7 @@
         <v>7005</v>
       </c>
       <c r="C681" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D681" t="str">
         <f t="shared" si="10"/>
@@ -26919,7 +27116,7 @@
         <v>7005</v>
       </c>
       <c r="C682" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D682" t="str">
         <f t="shared" si="10"/>
@@ -26934,7 +27131,7 @@
         <v>7007</v>
       </c>
       <c r="C683" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D683" t="str">
         <f t="shared" si="10"/>
@@ -26949,7 +27146,7 @@
         <v>7007</v>
       </c>
       <c r="C684" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D684" t="str">
         <f t="shared" si="10"/>
@@ -26964,7 +27161,7 @@
         <v>7701</v>
       </c>
       <c r="C685" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D685" t="str">
         <f t="shared" si="10"/>
@@ -26979,7 +27176,7 @@
         <v>7701</v>
       </c>
       <c r="C686" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D686" t="str">
         <f t="shared" si="10"/>
@@ -26994,7 +27191,7 @@
         <v>7072</v>
       </c>
       <c r="C687" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D687" t="str">
         <f t="shared" si="10"/>
@@ -27009,7 +27206,7 @@
         <v>7008</v>
       </c>
       <c r="C688" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D688" t="str">
         <f t="shared" si="10"/>
@@ -27024,7 +27221,7 @@
         <v>7008</v>
       </c>
       <c r="C689" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D689" t="str">
         <f t="shared" si="10"/>
@@ -27039,7 +27236,7 @@
         <v>7009</v>
       </c>
       <c r="C690" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D690" t="str">
         <f t="shared" si="10"/>
@@ -27054,7 +27251,7 @@
         <v>7009</v>
       </c>
       <c r="C691" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D691" t="str">
         <f t="shared" si="10"/>
@@ -27069,7 +27266,7 @@
         <v>7025</v>
       </c>
       <c r="C692" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D692" t="str">
         <f t="shared" si="10"/>
@@ -27084,7 +27281,7 @@
         <v>7014</v>
       </c>
       <c r="C693" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D693" t="str">
         <f t="shared" si="10"/>
@@ -27099,7 +27296,7 @@
         <v>4005</v>
       </c>
       <c r="C694" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D694" t="str">
         <f t="shared" si="10"/>
@@ -27114,7 +27311,7 @@
         <v>4005</v>
       </c>
       <c r="C695" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D695" t="str">
         <f t="shared" si="10"/>
@@ -27129,7 +27326,7 @@
         <v>4011</v>
       </c>
       <c r="C696" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D696" t="str">
         <f t="shared" si="10"/>
@@ -27144,7 +27341,7 @@
         <v>4011</v>
       </c>
       <c r="C697" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D697" t="str">
         <f t="shared" si="10"/>
@@ -27159,7 +27356,7 @@
         <v>4013</v>
       </c>
       <c r="C698" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D698" t="str">
         <f t="shared" si="10"/>
@@ -27174,7 +27371,7 @@
         <v>4013</v>
       </c>
       <c r="C699" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D699" t="str">
         <f t="shared" si="10"/>
@@ -27189,7 +27386,7 @@
         <v>4017</v>
       </c>
       <c r="C700" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D700" t="str">
         <f t="shared" si="10"/>
@@ -27204,7 +27401,7 @@
         <v>4017</v>
       </c>
       <c r="C701" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D701" t="str">
         <f t="shared" si="10"/>
@@ -27219,7 +27416,7 @@
         <v>4020</v>
       </c>
       <c r="C702" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D702" t="str">
         <f t="shared" si="10"/>
@@ -27234,7 +27431,7 @@
         <v>4020</v>
       </c>
       <c r="C703" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D703" t="str">
         <f t="shared" si="10"/>
@@ -27249,7 +27446,7 @@
         <v>4021</v>
       </c>
       <c r="C704" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D704" t="str">
         <f t="shared" si="10"/>
@@ -27264,7 +27461,7 @@
         <v>4021</v>
       </c>
       <c r="C705" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D705" t="str">
         <f t="shared" si="10"/>
@@ -27279,7 +27476,7 @@
         <v>4023</v>
       </c>
       <c r="C706" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D706" t="str">
         <f t="shared" si="10"/>
@@ -27294,7 +27491,7 @@
         <v>4023</v>
       </c>
       <c r="C707" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D707" t="str">
         <f t="shared" ref="D707:D745" si="11">LEFT(C707, 2)</f>
@@ -27309,7 +27506,7 @@
         <v>4025</v>
       </c>
       <c r="C708" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D708" t="str">
         <f t="shared" si="11"/>
@@ -27324,7 +27521,7 @@
         <v>4025</v>
       </c>
       <c r="C709" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D709" t="str">
         <f t="shared" si="11"/>
@@ -27339,7 +27536,7 @@
         <v>4026</v>
       </c>
       <c r="C710" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D710" t="str">
         <f t="shared" si="11"/>
@@ -27354,7 +27551,7 @@
         <v>4026</v>
       </c>
       <c r="C711" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D711" t="str">
         <f t="shared" si="11"/>
@@ -27369,7 +27566,7 @@
         <v>4029</v>
       </c>
       <c r="C712" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D712" t="str">
         <f t="shared" si="11"/>
@@ -27384,7 +27581,7 @@
         <v>4029</v>
       </c>
       <c r="C713" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D713" t="str">
         <f t="shared" si="11"/>
@@ -27399,7 +27596,7 @@
         <v>4034</v>
       </c>
       <c r="C714" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D714" t="str">
         <f t="shared" si="11"/>
@@ -27414,7 +27611,7 @@
         <v>4501</v>
       </c>
       <c r="C715" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D715" t="str">
         <f t="shared" si="11"/>
@@ -27429,7 +27626,7 @@
         <v>4501</v>
       </c>
       <c r="C716" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D716" t="str">
         <f t="shared" si="11"/>
@@ -27444,7 +27641,7 @@
         <v>4090</v>
       </c>
       <c r="C717" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D717" t="str">
         <f t="shared" si="11"/>
@@ -27459,7 +27656,7 @@
         <v>4090</v>
       </c>
       <c r="C718" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D718" t="str">
         <f t="shared" si="11"/>
@@ -27474,7 +27671,7 @@
         <v>4090</v>
       </c>
       <c r="C719" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D719" t="str">
         <f t="shared" si="11"/>
@@ -27489,7 +27686,7 @@
         <v>4090</v>
       </c>
       <c r="C720" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D720" t="str">
         <f t="shared" si="11"/>
@@ -27504,7 +27701,7 @@
         <v>4091</v>
       </c>
       <c r="C721" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D721" t="str">
         <f t="shared" si="11"/>
@@ -27519,7 +27716,7 @@
         <v>4034</v>
       </c>
       <c r="C722" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D722" t="str">
         <f t="shared" si="11"/>
@@ -27534,7 +27731,7 @@
         <v>4092</v>
       </c>
       <c r="C723" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D723" t="str">
         <f t="shared" si="11"/>
@@ -27549,7 +27746,7 @@
         <v>4092</v>
       </c>
       <c r="C724" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D724" t="str">
         <f t="shared" si="11"/>
@@ -27564,7 +27761,7 @@
         <v>4086</v>
       </c>
       <c r="C725" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D725" t="str">
         <f t="shared" si="11"/>
@@ -27579,7 +27776,7 @@
         <v>4086</v>
       </c>
       <c r="C726" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D726" t="str">
         <f t="shared" si="11"/>
@@ -27594,7 +27791,7 @@
         <v>4043</v>
       </c>
       <c r="C727" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D727" t="str">
         <f t="shared" si="11"/>
@@ -27609,7 +27806,7 @@
         <v>4043</v>
       </c>
       <c r="C728" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D728" t="str">
         <f t="shared" si="11"/>
@@ -27624,7 +27821,7 @@
         <v>4036</v>
       </c>
       <c r="C729" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D729" t="str">
         <f t="shared" si="11"/>
@@ -27639,7 +27836,7 @@
         <v>4024</v>
       </c>
       <c r="C730" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D730" t="str">
         <f t="shared" si="11"/>
@@ -27654,7 +27851,7 @@
         <v>4024</v>
       </c>
       <c r="C731" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D731" t="str">
         <f t="shared" si="11"/>
@@ -27669,7 +27866,7 @@
         <v>4012</v>
       </c>
       <c r="C732" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D732" t="str">
         <f t="shared" si="11"/>
@@ -27684,7 +27881,7 @@
         <v>4012</v>
       </c>
       <c r="C733" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D733" t="str">
         <f t="shared" si="11"/>
@@ -27699,7 +27896,7 @@
         <v>4012</v>
       </c>
       <c r="C734" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D734" t="str">
         <f t="shared" si="11"/>
@@ -27714,7 +27911,7 @@
         <v>4012</v>
       </c>
       <c r="C735" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D735" t="str">
         <f t="shared" si="11"/>
@@ -27729,7 +27926,7 @@
         <v>4009</v>
       </c>
       <c r="C736" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D736" t="str">
         <f t="shared" si="11"/>
@@ -27744,7 +27941,7 @@
         <v>4032</v>
       </c>
       <c r="C737" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D737" t="str">
         <f t="shared" si="11"/>
@@ -27759,7 +27956,7 @@
         <v>4032</v>
       </c>
       <c r="C738" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D738" t="str">
         <f t="shared" si="11"/>
@@ -27774,7 +27971,7 @@
         <v>4035</v>
       </c>
       <c r="C739" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D739" t="str">
         <f t="shared" si="11"/>
@@ -27789,7 +27986,7 @@
         <v>4037</v>
       </c>
       <c r="C740" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D740" t="str">
         <f t="shared" si="11"/>
@@ -27804,7 +28001,7 @@
         <v>4041</v>
       </c>
       <c r="C741" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D741" t="str">
         <f t="shared" si="11"/>
@@ -27819,7 +28016,7 @@
         <v>4008</v>
       </c>
       <c r="C742" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D742" t="str">
         <f t="shared" si="11"/>
@@ -27834,7 +28031,7 @@
         <v>4008</v>
       </c>
       <c r="C743" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D743" t="str">
         <f t="shared" si="11"/>
@@ -27849,7 +28046,7 @@
         <v>2051</v>
       </c>
       <c r="C744" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D744" t="str">
         <f t="shared" si="11"/>
@@ -27864,11 +28061,132 @@
         <v>2051</v>
       </c>
       <c r="C745" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D745" t="str">
         <f t="shared" si="11"/>
         <v>KT</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B746">
+        <v>1975</v>
+      </c>
+      <c r="C746" t="s">
+        <v>455</v>
+      </c>
+      <c r="D746" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B747">
+        <v>4501</v>
+      </c>
+      <c r="C747" t="s">
+        <v>457</v>
+      </c>
+      <c r="D747" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B748">
+        <v>4502</v>
+      </c>
+      <c r="C748" t="s">
+        <v>458</v>
+      </c>
+      <c r="D748" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B749">
+        <v>5001</v>
+      </c>
+      <c r="C749" t="s">
+        <v>447</v>
+      </c>
+      <c r="D749" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B750">
+        <v>5002</v>
+      </c>
+      <c r="C750" t="s">
+        <v>448</v>
+      </c>
+      <c r="D750" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B751">
+        <v>5003</v>
+      </c>
+      <c r="C751" t="s">
+        <v>449</v>
+      </c>
+      <c r="D751" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B752">
+        <v>5004</v>
+      </c>
+      <c r="C752" t="s">
+        <v>450</v>
+      </c>
+      <c r="D752" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B753">
+        <v>5005</v>
+      </c>
+      <c r="C753" t="s">
+        <v>451</v>
+      </c>
+      <c r="D753" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B754">
+        <v>5006</v>
+      </c>
+      <c r="C754" t="s">
+        <v>452</v>
+      </c>
+      <c r="D754" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B755">
+        <v>5007</v>
+      </c>
+      <c r="C755" t="s">
+        <v>453</v>
+      </c>
+      <c r="D755" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B756">
+        <v>5008</v>
+      </c>
+      <c r="C756" t="s">
+        <v>454</v>
+      </c>
+      <c r="D756" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
